--- a/Test Data/TC_199_Verify_Addition_Of_IS_Devices_To_EXI800.xlsx
+++ b/Test Data/TC_199_Verify_Addition_Of_IS_Devices_To_EXI800.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39708190-B60C-4BE5-9931-35B731DB7307}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices" sheetId="6" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Color Codes</t>
   </si>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -748,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E15"/>
+      <selection activeCell="E9" sqref="E9:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,8 +863,8 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>39</v>
+      <c r="E8" s="11">
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>9</v>
@@ -884,8 +883,8 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>40</v>
+      <c r="E9" s="11">
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -904,8 +903,8 @@
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>41</v>
+      <c r="E10" s="11">
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>11</v>
@@ -924,8 +923,8 @@
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>42</v>
+      <c r="E11" s="11">
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>19</v>
@@ -944,8 +943,8 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>43</v>
+      <c r="E12" s="11">
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>18</v>
@@ -964,8 +963,8 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>44</v>
+      <c r="E13" s="11">
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>17</v>
@@ -984,8 +983,8 @@
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>45</v>
+      <c r="E14" s="11">
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>16</v>
@@ -1004,8 +1003,8 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>46</v>
+      <c r="E15" s="11">
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>15</v>
@@ -1022,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902C6D8F-788F-4B55-BA4F-790129AF6CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H4:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
